--- a/docs/VerifPlans/ISA/RV32/Simulation/RV32Zicsr_Extension_Instruction.xlsx
+++ b/docs/VerifPlans/ISA/RV32/Simulation/RV32Zicsr_Extension_Instruction.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\silabs.com\design\scratch\strichmo\corev\core-v-docs\verif\VerifPlans\ISA\RV32\Simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Desktop\New Vplan Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0B848-DF22-4BFE-861C-AB18B27E77D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57717452-228E-45E4-91BF-CF65086B0B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1950" windowWidth="26280" windowHeight="13515" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="450" windowWidth="26220" windowHeight="14190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RV32Z" sheetId="1" r:id="rId1"/>
+    <sheet name="DONOTDELETE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,152 +31,7 @@
     <author>MT</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I don't know of any read side effects (they might be there, but I don't know them)
-Reply:
-    You are right, there are none (that I know of).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Specifically these parts of the spec should be checked:
-"For both CSRRS and CSRRC, if rs1=x0, then the instruction will not write to the CSR at all, and
-so shall not cause any of the side effects that might otherwise occur on a CSR write, such as raising
-illegal instruction exceptions on accesses to read-only CSRs."
-The 'such as raising an illegal instruction exception' should be checked for the following:
-"For CSRRSI and CSRRCI, if the uimm[4:0] field is zero, then these instructions will not
-write to the CSR, and shall not cause any of the side effects that might otherwise occur on a CSR
-write."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1
-Reply:
-    Good catch, thanks.  Added.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1
-Reply:
-    Good catch, thanks.  Added.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1
-Reply:
-    Dito.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This should be checked:
-"Some CSRs, such as the instructions-retired counter, instret, may be modified as side effects of
-instruction execution. In these cases, if a CSR access instruction reads a CSR, it reads the value
-prior to the execution of the instruction. If a CSR access instruction writes such a CSR, the write
-is done instead of the increment. In particular, a value written to instret by one instruction will
-be the value read by the following instruction."
-"In
-particular, a CSR access is performed after the execution of any prior instructions in program
-order whose behavior modifies or is modified by the CSR state and before the execution of any
-subsequent instructions in program order whose behavior modifies or is modified by the CSR state." (Of course this is quite difficult; maybe you can try to define specific scenarios where the CSR access ordering becomes visible; an extremely easy scenario is of course writing a CSR and then reading it back; probably you can think of more exotic scenarios)
-Reply:
-    GOOD ONES.   Thanks.  Although I think your second scenario (and maybe even your first scenario) should be in the CSR Vplan (which is not complete at the time of this writting).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -277,83 +133,6 @@
 rd = Zext([csr]); csr = [rs1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Test specific condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: If rd == x0 then CSR is not read.</t>
-    </r>
-  </si>
-  <si>
-    <t>Compliance tests: correct test signature.
-Random tests: RTL matches ISS.</t>
-  </si>
-  <si>
-    <t>Compliance /
-Directed Sequence /
-Random</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Test case (Compliance).
-Functional coverage of verification goals with special attention to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>NOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>csrrw_cg</t>
-  </si>
-  <si>
     <t>CSRRS</t>
   </si>
   <si>
@@ -362,45 +141,6 @@
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Test specific condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: If rs1 == x0 then CSR is read and not written.</t>
-    </r>
-  </si>
-  <si>
-    <t>Compliance tests: correct test signature.
-Random tests: RTL matches ISS.
-Check read\wite side-affects for csr.  (e.g. raising illegal instruction exceptions on accesses to read-only CSRs).</t>
-  </si>
-  <si>
-    <t>csrrs_cg</t>
-  </si>
-  <si>
     <t>CSRRC</t>
   </si>
   <si>
@@ -409,9 +149,6 @@
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <t>csrrc_cg</t>
-  </si>
-  <si>
     <t>CSRRWI</t>
   </si>
   <si>
@@ -420,40 +157,6 @@
 If rd == x0 then CSR is not read.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Test specific condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: If rd == x0 then CSR not read.</t>
-    </r>
-  </si>
-  <si>
-    <t>csrrwi_cg</t>
-  </si>
-  <si>
     <t>CSRRSI</t>
   </si>
   <si>
@@ -462,40 +165,6 @@
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Test specific condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: If uimm == 0 then CSR is read and not written.</t>
-    </r>
-  </si>
-  <si>
-    <t>csrrsi_cg</t>
-  </si>
-  <si>
     <t>CSRRCI</t>
   </si>
   <si>
@@ -504,48 +173,92 @@
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Test specific condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: If uimm == !0 then CSR is both read and written.</t>
-    </r>
-  </si>
-  <si>
-    <t>csrrci_cg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Self Checking Test</t>
+  </si>
+  <si>
+    <t>RISC-V Compliance</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Signature Check</t>
+  </si>
+  <si>
+    <t>OpenHW Compliance</t>
+  </si>
+  <si>
+    <t>Functional Coverage</t>
+  </si>
+  <si>
+    <t>Check against ISS</t>
+  </si>
+  <si>
+    <t>Directed Self-Checking</t>
+  </si>
+  <si>
+    <t>Assertion Coverage</t>
+  </si>
+  <si>
+    <t>Check against RM</t>
+  </si>
+  <si>
+    <t>Directed Non-Self-Checking</t>
+  </si>
+  <si>
+    <t>Code Coverage</t>
+  </si>
+  <si>
+    <t>Assertion Check</t>
+  </si>
+  <si>
+    <t>Constrained-Random</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Any/All</t>
+  </si>
+  <si>
+    <t>ENV capability, not specific test</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Missing Coverage</t>
+  </si>
+  <si>
+    <t>Register operands:
+All possible rs1 registers are used
+All possible rd registers are used
+All supported CSRs are used
+All possible register combinations where rs1 == rd are used</t>
+  </si>
+  <si>
+    <t>Input operand:
+Non-zero and zero rs1 operands are used (if rs1 != x0)</t>
+  </si>
+  <si>
+    <t>Input operand:
+Non-zero and zero imm[4:0] operands are used
+All bits of imm[4:0] are toggled</t>
+  </si>
+  <si>
+    <t>Register operands:
+All possible rd registers are used
+All supported CSRs are used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -582,14 +295,30 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Ubuntu"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +331,11 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -612,19 +346,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -655,8 +384,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1037,220 +789,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" style="4" customWidth="1"/>
-    <col min="10" max="1023" width="17" style="4"/>
-    <col min="1024" max="1024" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="2" customWidth="1"/>
+    <col min="11" max="1023" width="17" style="2"/>
+    <col min="1024" max="1024" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="93" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="99.75">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="42.75">
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" ht="42.75">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="99.75">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="42.75">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="57">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="138.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="57">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="57">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="57">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="57">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="11" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="86.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="57">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" s="12" customFormat="1">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="86.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="86.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="86.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="10" customFormat="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="11" spans="1:9"/>
-    <row r="12" spans="1:9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="18" spans="2:2"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="G2:G7"/>
+  <mergeCells count="15">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27273F37-8C54-4217-B3D0-1C13E68B14A9}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$A$3:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCFDD8E7-AA48-4754-8DC5-D59B37E32582}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$C$3:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3951532D-47B0-4D58-8A16-2E6A3F0B2750}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712C3536-3946-49D7-A502-07BC36B4400A}">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>